--- a/mySystem/mySystem/xls/LDPEBag/SOP-MFG-109-R01A 产品内包装记录-1.xlsx
+++ b/mySystem/mySystem/xls/LDPEBag/SOP-MFG-109-R01A 产品内包装记录-1.xlsx
@@ -3177,7 +3177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3364,6 +3364,9 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3493,6 +3496,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3568,20 +3586,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3592,32 +3619,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3937,42 +3940,42 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
     </row>
     <row r="3" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="74" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="81" t="s">
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="84"/>
     </row>
     <row r="4" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4164,12 +4167,12 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="62" t="s">
+      <c r="J12" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="65"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -4183,10 +4186,10 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="64"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="65"/>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -4200,46 +4203,46 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="67"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="68"/>
     </row>
     <row r="15" spans="1:13" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="70"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="71"/>
     </row>
     <row r="16" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72" t="s">
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="80"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4308,48 +4311,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="94" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="94" t="s">
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="95"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="96"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4413,15 +4416,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="96" t="s">
+      <c r="J5" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="100"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="101"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -4435,13 +4438,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="101"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="102"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -4499,15 +4502,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="88" t="s">
+      <c r="J9" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="90"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -4521,13 +4524,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="90"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -4541,13 +4544,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="90"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -4561,15 +4564,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="90" t="s">
+      <c r="J12" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="92"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -4583,13 +4586,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="92"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -4603,13 +4606,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="92"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -4623,13 +4626,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="92"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
@@ -4643,35 +4646,35 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="92"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="92" t="s">
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="93"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4747,48 +4750,48 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="94" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="94" t="s">
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="95"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="96"/>
     </row>
     <row r="4" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
@@ -4852,15 +4855,15 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="96" t="s">
+      <c r="J5" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="100"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="101"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -4874,13 +4877,13 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="101"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="102"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -4916,15 +4919,15 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="102" t="s">
+      <c r="J8" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="105"/>
     </row>
     <row r="9" spans="1:16" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
@@ -4938,15 +4941,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="88" t="s">
+      <c r="J9" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="90"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -4960,13 +4963,13 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="90"/>
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -4980,13 +4983,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="90"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
@@ -5000,15 +5003,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="90" t="s">
+      <c r="J12" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="92"/>
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -5022,13 +5025,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="92"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -5042,13 +5045,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="92"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -5062,13 +5065,13 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="92"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
@@ -5082,38 +5085,43 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="92"/>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="92" t="s">
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="93"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J9:P11"/>
+    <mergeCell ref="J12:P16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J8:P8"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:J3"/>
@@ -5125,11 +5133,6 @@
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
-    <mergeCell ref="J9:P11"/>
-    <mergeCell ref="J12:P16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J8:P8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5186,96 +5189,96 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="131" t="s">
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="131" t="s">
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="133"/>
-      <c r="O3" s="134" t="s">
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="134"/>
+      <c r="P3" s="110"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="129" t="s">
+      <c r="E4" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="110" t="s">
+      <c r="G4" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="114" t="s">
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="M4" s="115"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="117" t="s">
+      <c r="M4" s="121"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="118" t="s">
+      <c r="P4" s="124" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="126"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="109"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="115"/>
       <c r="G5" s="29" t="s">
         <v>79</v>
       </c>
@@ -5300,8 +5303,8 @@
       <c r="N5" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
     </row>
     <row r="6" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34">
@@ -5544,60 +5547,55 @@
       <c r="P17" s="41"/>
     </row>
     <row r="18" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="119" t="s">
+      <c r="A18" s="125" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="121"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="127"/>
       <c r="E18" s="46" t="s">
         <v>88</v>
       </c>
       <c r="F18" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="122" t="s">
+      <c r="G18" s="128" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="123"/>
-      <c r="N18" s="124"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="129"/>
+      <c r="K18" s="129"/>
+      <c r="L18" s="129"/>
+      <c r="M18" s="129"/>
+      <c r="N18" s="130"/>
       <c r="O18" s="41"/>
       <c r="P18" s="41"/>
     </row>
     <row r="19" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="105" t="s">
+      <c r="A19" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="106"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106" t="s">
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="107"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="G19:P19"/>
     <mergeCell ref="F4:F5"/>
@@ -5612,6 +5610,11 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5624,8 +5627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:J20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5668,64 +5671,64 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="110" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="138"/>
-      <c r="F3" s="135" t="s">
+      <c r="E3" s="139"/>
+      <c r="F3" s="144" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="134" t="s">
+      <c r="G3" s="145"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="134"/>
-      <c r="K3" s="131" t="s">
+      <c r="J3" s="110"/>
+      <c r="K3" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="133"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="109"/>
     </row>
     <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="134"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="139"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="147"/>
       <c r="H4" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
       <c r="K4" s="49" t="s">
         <v>101</v>
       </c>
@@ -5737,46 +5740,46 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="142" t="s">
+      <c r="B5" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="114" t="s">
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="115"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="118" t="s">
+      <c r="L5" s="121"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="O5" s="118" t="s">
+      <c r="O5" s="124" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="126"/>
-      <c r="B6" s="127"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="109"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="115"/>
       <c r="F6" s="29" t="s">
         <v>79</v>
       </c>
@@ -5801,227 +5804,227 @@
       <c r="M6" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="N6" s="117"/>
-      <c r="O6" s="117"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
     </row>
     <row r="7" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="47">
         <v>1</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58" t="s">
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="K7" s="58" t="s">
+      <c r="K7" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="L7" s="58" t="s">
+      <c r="L7" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="M7" s="58" t="s">
+      <c r="M7" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
     </row>
     <row r="8" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="47">
         <v>2</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
     </row>
     <row r="9" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="47">
         <v>3</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
     </row>
     <row r="10" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="47">
         <v>4</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
     </row>
     <row r="11" spans="1:15" s="13" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="47">
         <v>5</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
     </row>
     <row r="12" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="47">
         <v>6</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
     </row>
     <row r="13" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="47">
         <v>7</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
     </row>
     <row r="14" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="47">
         <v>8</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
     </row>
     <row r="15" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="47">
         <v>9</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
     </row>
     <row r="16" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="47">
         <v>10</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
     </row>
     <row r="17" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="47">
         <v>11</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
     </row>
     <row r="18" spans="1:15" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="47">
@@ -6043,10 +6046,10 @@
       <c r="O18" s="58"/>
     </row>
     <row r="19" spans="1:15" s="52" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="143" t="s">
+      <c r="A19" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="144"/>
+      <c r="B19" s="141"/>
       <c r="C19" s="57" t="s">
         <v>87</v>
       </c>
@@ -6082,25 +6085,25 @@
       <c r="O19" s="41"/>
     </row>
     <row r="20" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="140" t="s">
+      <c r="A20" s="136" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="141"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="145" t="s">
+      <c r="B20" s="137"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="142" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="145"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="146"/>
-      <c r="M20" s="146"/>
-      <c r="N20" s="146"/>
-      <c r="O20" s="146"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="143"/>
+      <c r="O20" s="143"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B23" s="55" t="s">
@@ -6109,19 +6112,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="A19:B19"/>
     <mergeCell ref="F20:J20"/>
     <mergeCell ref="K20:O20"/>
     <mergeCell ref="A2:O2"/>
@@ -6132,6 +6122,19 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
